--- a/International.xlsx
+++ b/International.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="0" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="18855" windowHeight="9660"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="12135" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -23,7 +23,7 @@
     <t>DONORS</t>
   </si>
   <si>
-    <t>ALUMNI_DONORS</t>
+    <t>AL_DONORS</t>
   </si>
   <si>
     <t>AMOUNT</t>
@@ -53,6 +53,9 @@
     <t>DNK</t>
   </si>
   <si>
+    <t>ENG</t>
+  </si>
+  <si>
     <t>GBR</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>JPN</t>
   </si>
   <si>
+    <t>KOR</t>
+  </si>
+  <si>
     <t>MAR</t>
   </si>
   <si>
@@ -98,14 +104,17 @@
     <t>TWN</t>
   </si>
   <si>
-    <t>select t.country,count(distinct t.donorid) donors
-,(select count(distinct t1.donorid)  from jnmead01.coc_donors_mapped t1
-  where t1.country = t.country and t1.rectype = 'AL') alumni_donors
+    <t>select -- coc donors by country including campus priorities and bucks for brains
+t.country
+,count(distinct t.donorid) donors
+,nvl((select count(distinct t1.donorid) from coc_donors_mapped t1
+  where t1.rectype = 'AL' and t1.country = t.country),0) al_donors
 ,sum(t.total_philanthropy) amount
-from jnmead01.coc_donors_mapped t
+from coc_donors_mapped t
 where trim(t.country) is not null
---where not exists (select 1 from advance.tms_states ts where ts.state_code = t.state and trim(ts.national_region) is not null)
-group by t.country</t>
+and trim(t.state) is null
+group by t.country
+order by 1</t>
   </si>
 </sst>
 </file>
@@ -453,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -464,7 +473,7 @@
   <cols>
     <col min="1" max="1" width="11.28515625"/>
     <col min="2" max="2" width="10.28515625"/>
-    <col min="3" max="3" width="17.42578125"/>
+    <col min="3" max="3" width="13.140625"/>
     <col min="4" max="4" width="10.28515625"/>
   </cols>
   <sheetData>
@@ -515,13 +524,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>254791.62</v>
+        <v>258666.62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,13 +552,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>185145.37</v>
+        <v>185135.37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,13 +608,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>512185</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,13 +622,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>120</v>
+        <v>512185</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -630,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,13 +650,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>21.93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -655,13 +664,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>26409.599999999999</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,13 +678,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3145.88</v>
+        <v>26409.599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -686,10 +695,10 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>285100</v>
+        <v>3145.88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,13 +706,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>286400</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -714,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>250</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -725,13 +734,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -745,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,13 +762,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>11170.75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,13 +776,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>568250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,13 +790,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>11170.75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -795,12 +804,40 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
+        <v>568250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>3800</v>
       </c>
     </row>
@@ -822,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/International.xlsx
+++ b/International.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="0" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\D3Playground\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="585" windowWidth="12135" windowHeight="9660"/>
   </bookViews>
@@ -158,9 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +177,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -474,7 +484,7 @@
     <col min="1" max="1" width="11.28515625"/>
     <col min="2" max="2" width="10.28515625"/>
     <col min="3" max="3" width="13.140625"/>
-    <col min="4" max="4" width="10.28515625"/>
+    <col min="4" max="4" width="10.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +497,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -501,7 +511,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>117</v>
       </c>
     </row>
@@ -515,7 +525,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>150000</v>
       </c>
     </row>
@@ -529,7 +539,7 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>258666.62</v>
       </c>
     </row>
@@ -543,7 +553,7 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>115</v>
       </c>
     </row>
@@ -557,7 +567,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>185135.37</v>
       </c>
     </row>
@@ -571,7 +581,7 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>300</v>
       </c>
     </row>
@@ -585,7 +595,7 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>116</v>
       </c>
     </row>
@@ -599,7 +609,7 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>83502.460000000006</v>
       </c>
     </row>
@@ -613,7 +623,7 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>25</v>
       </c>
     </row>
@@ -627,7 +637,7 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>512185</v>
       </c>
     </row>
@@ -641,7 +651,7 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>120</v>
       </c>
     </row>
@@ -655,7 +665,7 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>100</v>
       </c>
     </row>
@@ -669,7 +679,7 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>21.93</v>
       </c>
     </row>
@@ -683,7 +693,7 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>26409.599999999999</v>
       </c>
     </row>
@@ -697,7 +707,7 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>3145.88</v>
       </c>
     </row>
@@ -711,7 +721,7 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>286400</v>
       </c>
     </row>
@@ -725,7 +735,7 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>40</v>
       </c>
     </row>
@@ -739,7 +749,7 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>10</v>
       </c>
     </row>
@@ -753,7 +763,7 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>250</v>
       </c>
     </row>
@@ -767,7 +777,7 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>25</v>
       </c>
     </row>
@@ -781,7 +791,7 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>50</v>
       </c>
     </row>
@@ -795,7 +805,7 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>11170.75</v>
       </c>
     </row>
@@ -809,7 +819,7 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>568250</v>
       </c>
     </row>
@@ -823,7 +833,7 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>50</v>
       </c>
     </row>
@@ -837,7 +847,7 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>3800</v>
       </c>
     </row>
